--- a/Employee_Reports35/Mohomed Minnas Mohomed Ramees Q0582.xlsx
+++ b/Employee_Reports35/Mohomed Minnas Mohomed Ramees Q0582.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -46,6 +46,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="001F4E78"/>
         <bgColor rgb="001F4E78"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFACD"/>
+        <bgColor rgb="00FFFACD"/>
       </patternFill>
     </fill>
     <fill>
@@ -73,7 +79,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -85,6 +91,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,7 +470,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="59" customWidth="1" min="2" max="2"/>
+    <col width="56" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
@@ -469,7 +478,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -572,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +875,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -955,213 +964,213 @@
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>26-Aug-2024</t>
+          <t>11-Dec-2024</t>
         </is>
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>11-Dec-2025</t>
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>-69</v>
+        <v>37</v>
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
-          <t>NOT VALID</t>
+          <t>EXPIRING SOON</t>
         </is>
       </c>
       <c r="K11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Equipment Operation Procedure
 (SOP-031) (SOPs)</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>LSME-CRG-SOP-031</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>06-Jun-2024</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>06-Jun-2025</t>
         </is>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>-150</v>
-      </c>
-      <c r="I12" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="H12" s="5" t="n">
+        <v>-151</v>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="K12" s="4" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>LSME-CRG-SOP-028</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>14-May-2024</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>14-May-2025</t>
         </is>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>-173</v>
-      </c>
-      <c r="I13" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="H13" s="5" t="n">
+        <v>-174</v>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="K13" s="4" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>STACKER CRANE AISLE MONTHLY PREVENTIVE MAINTENANCE (SOPs)</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-035</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Endangered by Electricity A safety Training (SOPs)</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>31-Jul-2024</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>31-Jul-2025</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-96</v>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>31-Jul-2024</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>31-Jul-2025</t>
-        </is>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>-95</v>
-      </c>
-      <c r="I14" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J14" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K14" s="4" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Endangered by Electricity A safety Training (SOPs)</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr"/>
-      <c r="D15" s="4" t="inlineStr"/>
-      <c r="E15" s="4" t="inlineStr"/>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>31-Jul-2024</t>
-        </is>
-      </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>31-Jul-2025</t>
-        </is>
-      </c>
-      <c r="H15" s="4" t="n">
-        <v>-95</v>
-      </c>
-      <c r="I15" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K15" s="4" t="inlineStr"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>13-Mar-2025</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>13-Mar-2026</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -1169,40 +1178,28 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-018</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr"/>
+      <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>19-Feb-2025</t>
+          <t>25-Mar-2025</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>19-Feb-2026</t>
+          <t>25-Mar-2026</t>
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1235,11 +1232,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">

--- a/Employee_Reports35/Mohomed Minnas Mohomed Ramees Q0582.xlsx
+++ b/Employee_Reports35/Mohomed Minnas Mohomed Ramees Q0582.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="56" customWidth="1" min="2" max="2"/>
+    <col width="55" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -973,11 +973,11 @@
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
@@ -993,135 +993,122 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>Equipment Operation Procedure
-(SOP-031) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-031</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
+          <t>Endangered by Electricity A safety Training (SOPs)</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>31-Jul-2024</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>31-Jul-2025</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-97</v>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>06-Jun-2024</t>
-        </is>
-      </c>
-      <c r="G12" s="5" t="inlineStr">
-        <is>
-          <t>06-Jun-2025</t>
-        </is>
-      </c>
-      <c r="H12" s="5" t="n">
-        <v>-151</v>
-      </c>
-      <c r="I12" s="5" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J12" s="5" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K12" s="5" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-028</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>14-May-2024</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="inlineStr">
-        <is>
-          <t>14-May-2025</t>
-        </is>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>-174</v>
-      </c>
-      <c r="I13" s="5" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J13" s="5" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K13" s="5" t="inlineStr"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>13-Mar-2025</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>13-Mar-2026</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>Endangered by Electricity A safety Training (SOPs)</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>31-Jul-2024</t>
-        </is>
-      </c>
-      <c r="G14" s="5" t="inlineStr">
-        <is>
-          <t>31-Jul-2025</t>
-        </is>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>-96</v>
-      </c>
-      <c r="I14" s="5" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J14" s="5" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K14" s="5" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
+      <c r="E14" s="3" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>25-Mar-2025</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>25-Mar-2026</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>140</v>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
@@ -1129,40 +1116,28 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-018</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>IS0 55001 (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" s="3" t="inlineStr"/>
+      <c r="E15" s="3" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>13-Mar-2025</t>
+          <t>03-Sep-2024</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>13-Mar-2026</t>
+          <t>03-Sep-2026</t>
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>129</v>
+        <v>302</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1171,80 +1146,6 @@
         </is>
       </c>
       <c r="K15" s="3" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" s="3" t="inlineStr"/>
-      <c r="E16" s="3" t="inlineStr"/>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>25-Mar-2025</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>25-Mar-2026</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="n">
-        <v>141</v>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>IS0 55001 (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr"/>
-      <c r="E17" s="3" t="inlineStr"/>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>03-Sep-2024</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>03-Sep-2026</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="n">
-        <v>303</v>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
